--- a/pred_ohlcv/54_21/2019-10-15 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>95487.0626477912</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>91397.9703477912</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>90789.49534779119</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>90148.00484779119</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>82928.2745477912</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>73579.0818477912</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>71396.52044779119</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>47365.96454779118</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51161.03974779118</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>51138.01474779118</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>82217.43024779117</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>69913.99854779115</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>70052.17764779115</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>154120.3414665411</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>157334.1773860813</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>158748.5489860814</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>153426.0434860814</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>195184.754660794</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>194984.754660794</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>197429.111460794</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>202331.210160794</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>202331.210160794</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>206112.760060794</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>204862.619360794</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>204862.619360794</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>205594.960360794</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>205199.408060794</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>220783.865160794</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>220959.601460794</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>220959.601460794</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>303873.5132387992</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>329784.865818077</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>319563.796018077</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>319573.096018077</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>319573.095971635</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>315293.926371635</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>314364.101971635</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>344591.108125193</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>341695.992525193</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>356514.661525193</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>347365.840525193</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>339866.776625193</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>339866.776625193</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>339149.500525193</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>325217.679125193</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>325217.679125193</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>326236.3450251931</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>318844.4297251931</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>318804.4297251931</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>318803.4297251931</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>320526.5460251931</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>320229.274625193</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>320229.274625193</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>322083.036325193</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>290367.345925193</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>327463.881825193</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>327463.881825193</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>325193.488325193</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>341360.8904817472</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>348968.8360817472</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>344808.1350817472</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>341238.1350817472</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>342648.1350817472</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>437577.7642817472</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>440813.6062817472</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>440622.2131817472</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>443744.2717817472</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>443856.1288817472</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>391714.9837817472</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>508635.7649727521</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>501529.247172752</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>503986.615272752</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>505565.777172752</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>498305.7657727521</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>516551.720072752</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>479788.787672752</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>503586.933172752</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>502896.960772752</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>509072.914572752</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>509054.455072752</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>508658.091772752</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>502839.264572752</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>510300.492372752</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>513943.101172752</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>514233.153872752</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>516088.097272752</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>514766.198272752</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>508767.318972752</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>507430.201972752</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>95487.0626477912</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>95494.1934477912</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>91397.9703477912</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>90789.49534779119</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91185.40864779119</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>88140.1308477912</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>90148.00484779119</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>82928.2745477912</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>83271.9752477912</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>73579.0818477912</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>76596.8377477912</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>73314.4957477912</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>73320.9130477912</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>71396.52044779119</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>71813.84424779119</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70041.14404779118</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>47365.96454779118</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>51161.03974779118</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>51138.01474779118</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>50388.80394779118</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>121927.0266477912</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>119123.0661665411</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>103416.8335665411</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>154120.3414665411</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>157334.1773860813</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>156453.8685860813</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>158748.5489860814</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>154216.2691860814</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>153426.0434860814</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>195184.754660794</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>194984.754660794</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>197429.111460794</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>196829.048960794</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>202331.210160794</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>202331.210160794</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>206112.760060794</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>204862.619360794</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>204862.619360794</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>205594.960360794</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>205199.408060794</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>220783.865160794</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>220959.601460794</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>220959.601460794</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>303115.6150387992</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>303873.5132387992</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>307550.6105852412</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>329784.865818077</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>319563.796018077</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>319573.096018077</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>319573.095971635</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>315293.926371635</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>314364.101971635</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>344591.108125193</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>341695.992525193</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>356514.661525193</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>347365.840525193</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>339865.776625193</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>339866.776625193</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>339866.776625193</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>339149.500525193</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>340093.133425193</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>325217.679125193</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>325217.679125193</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>326236.3450251931</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>318844.4297251931</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>318804.4297251931</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>318803.4297251931</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>320526.5460251931</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>320527.5460251931</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>320229.274625193</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>320229.274625193</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>335953.036425193</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>322083.036325193</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>290367.345925193</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>327463.881825193</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>327463.881825193</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>325193.488325193</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>349783.0418817473</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>341348.5954817472</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>341360.8904817472</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>348968.8360817472</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>345214.9752817472</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>344808.1350817472</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>343138.1350817472</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>341238.1350817472</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>342638.1350817472</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>342648.1350817472</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>342117.8019817472</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>437577.7642817472</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>440813.6062817472</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>440622.2131817472</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>441332.4568817472</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>443868.2092817472</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>443744.2717817472</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>443856.1288817472</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>435435.6777817472</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>391714.9837817472</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>460166.9733904114</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>509427.6824727521</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>508635.7649727521</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>513783.3897727521</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>501529.247172752</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>504171.214872752</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>503986.615272752</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>505565.777172752</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>505728.113272752</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>498305.7657727521</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>516551.720072752</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>479788.787672752</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>503586.933172752</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>502896.960772752</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>509072.914572752</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>509054.455072752</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>508658.091772752</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>502851.422772752</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>502839.264572752</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>510445.610772752</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>514030.930572752</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>517145.101172752</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>515505.456972752</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
